--- a/数据整理/stocks/A股/科创板/688599-天合光能.xlsx
+++ b/数据整理/stocks/A股/科创板/688599-天合光能.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>398051</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中海环保新能源混合</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>64.20</t>
+          <t>30.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3555</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>501095</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.54</t>
+          <t>10.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.46</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.55</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000689</t>
+          <t>398051</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源新经济灵活配置混合</t>
+          <t>中海环保新能源混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2439</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000739</t>
+          <t>001951</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合A</t>
+          <t>金鹰改革红利灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.44</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004917</t>
+          <t>000689</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银证券祥瑞混合A</t>
+          <t>前海开源新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>78.61</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004918</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银证券祥瑞混合C</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>78.61</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001515</t>
+          <t>000739</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合C</t>
+          <t>平安新鑫先锋混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>83.44</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.38</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001675</t>
+          <t>001515</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合A</t>
+          <t>平安新鑫先锋混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001676</t>
+          <t>001675</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合C</t>
+          <t>江信同福灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>94.01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>3.67</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001951</t>
+          <t>004917</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金鹰改革红利灵活配置混合</t>
+          <t>中银证券祥瑞混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.78</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002601</t>
+          <t>004918</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中银证券价值精选灵活配置混合</t>
+          <t>中银证券祥瑞混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501095</t>
+          <t>001676</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+          <t>江信同福灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>79.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>9</v>
       </c>
     </row>
@@ -861,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,15 +1022,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010923</t>
+          <t>005669</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永赢鑫欣混合</t>
+          <t>前海开源公用事业行业股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.47</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005076</t>
+          <t>010923</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信优选回报灵活配置混合</t>
+          <t>永赢鑫欣混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>67.15</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -968,15 +1138,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>82.22</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.64</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000739</t>
+          <t>001907</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合A</t>
+          <t>国投瑞银境煊灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.72</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001515</t>
+          <t>000739</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合C</t>
+          <t>平安新鑫先锋混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>87.72</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.43</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001675</t>
+          <t>001515</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合A</t>
+          <t>平安新鑫先锋混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001676</t>
+          <t>001675</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合C</t>
+          <t>江信同福灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>92.01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.25</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001907</t>
+          <t>001908</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
+          <t>国投瑞银境煊灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>94.36</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.47</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001908</t>
+          <t>005076</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
+          <t>创金合信优选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005669</t>
+          <t>001676</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源公用事业行业股票</t>
+          <t>江信同福灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>81.72</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688599-天合光能.xlsx
+++ b/数据整理/stocks/A股/科创板/688599-天合光能.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,1314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9953</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7283</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7991</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7753</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5729</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2255</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008723</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢鑫享混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢鑫盛混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>65.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>40.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688599-天合光能.xlsx
+++ b/数据整理/stocks/A股/科创板/688599-天合光能.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2740,4 +2741,4878 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.1640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5356</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1294</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6864</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6420</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3451</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3570</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3280</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2494</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>39.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2487</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>54.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7704</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>46.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5723</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5389</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>31.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0448</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9635</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8764</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8432</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7158</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5901</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5613</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4837</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4586</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4546</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4362</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4211</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4098</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4060</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3722</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3548</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3537</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3380</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2866</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2780</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2756</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>52.98</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2634</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2451</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011975</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>39.57</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>52.98</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008893</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011976</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>008894</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688599-天合光能.xlsx
+++ b/数据整理/stocks/A股/科创板/688599-天合光能.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7558,7 +7559,6 @@
           <t>兴全合兴两年封闭运作混合（LOF）C</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
           <t>91.03</t>
@@ -7610,6 +7610,106 @@
       </c>
       <c r="H128" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>127</v>
+      </c>
+      <c r="D2" t="n">
+        <v>62.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.59</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688599-天合光能.xlsx
+++ b/数据整理/stocks/A股/科创板/688599-天合光能.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7623,7 +7624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7634,17 +7635,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7654,14 +7675,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>127</v>
-      </c>
-      <c r="D2" t="n">
-        <v>62.37</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.0443</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -7670,14 +7713,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.93</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>206.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14.2754</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -7686,14 +7751,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.52</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>109.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.5893</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -7702,13 +7789,7362 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.8212</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>141.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.1916</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>142.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.8189</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>136.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.6722</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.6689</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5.4287</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>69.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5.1235</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>103.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.5904</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>48.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.3988</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>42.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4.3046</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4.0093</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.8223</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.6244</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.3052</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>39.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3.2077</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.7002</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>57.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.6402</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.5240</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.3677</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.2897</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>50.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.0516</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.9808</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.8612</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>24.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.7293</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>48.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.5256</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>31.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.4429</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.3124</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.2375</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.1828</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.1733</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.0926</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.0365</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9863</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9667</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9475</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8536</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.8014</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7811</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7756</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6311</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6153</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5771</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5703</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5487</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5461</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5428</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5366</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5309</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5282</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5114</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5006</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4910</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4817</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4635</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4625</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4561</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.4207</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3926</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3854</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3825</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>39.39</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3720</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3586</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011975</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>47.33</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3437</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3123</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2927</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2610</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1884</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>013106</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009071</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>013105</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>000932</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>71.86</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>000933</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>009072</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>011976</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>47.33</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>194</v>
+      </c>
+      <c r="D2" t="n">
+        <v>173.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>127</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688599-天合光能.xlsx
+++ b/数据整理/stocks/A股/科创板/688599-天合光能.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15043,7 +15044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15054,17 +15055,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15074,14 +15095,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>194</v>
-      </c>
-      <c r="D2" t="n">
-        <v>173.49</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>226.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.9525</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -15090,14 +15133,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>127</v>
-      </c>
-      <c r="D3" t="n">
-        <v>62.37</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>148.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14.3599</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -15106,14 +15171,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.93</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>105.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.9596</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -15122,14 +15209,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.52</v>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>60.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.0372</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -15138,13 +15247,8031 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>149.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.8836</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>136.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.1665</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.8917</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001811</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.7082</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.1107</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.4099</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>47.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.0842</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.0248</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.9444</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>34.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.7369</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.6332</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>48.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.5867</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>39.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.5806</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>58.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.4389</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.3557</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.2328</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.8230</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5170</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4362</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>40.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.4083</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>29.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3274</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2870</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1191</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.1014</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0418</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9724</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9430</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9426</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005765</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9122</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8619</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8563</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>26.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8364</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8255</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8135</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8100</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7864</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7571</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7207</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7122</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14.70</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.7071</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6516</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012223</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6038</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5828</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5636</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5550</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5469</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4955</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4769</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4645</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4324</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4181</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4169</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3902</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3885</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3820</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3707</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3594</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3583</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3432</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3403</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3122</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2697</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2651</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2551</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2516</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2344</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011975</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2251</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2133</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012224</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>62.31</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>80.47</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>76.48</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>38.80</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>56.32</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>012445</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华富新能源股票型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>013105</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>79.18</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>013106</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>011976</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>001466</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>001467</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>212</v>
+      </c>
+      <c r="D2" t="n">
+        <v>144.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>194</v>
+      </c>
+      <c r="D3" t="n">
+        <v>173.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>127</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.59</v>
       </c>
     </row>
